--- a/rsmsa/public/uploads/driver.xlsx
+++ b/rsmsa/public/uploads/driver.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="470" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Surname</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Occupation</t>
   </si>
   <si>
+    <t>Driving Class</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
     <t>Mbwilo</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>Teacher</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Issay</t>
   </si>
   <si>
@@ -90,20 +99,25 @@
   </si>
   <si>
     <t>Bussines</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,12 +190,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -278,7 +297,10 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58673469387755"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.3673469387755"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,19 +337,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9887483</v>
@@ -336,33 +364,39 @@
         <v>7283748</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>77263781</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>42652</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>929839</v>
@@ -371,19 +405,25 @@
         <v>7823782</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>92839829</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>42194</v>
       </c>
     </row>
   </sheetData>

--- a/rsmsa/public/uploads/driver.xlsx
+++ b/rsmsa/public/uploads/driver.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Surname</t>
   </si>
@@ -101,7 +101,10 @@
     <t>Bussines</t>
   </si>
   <si>
-    <t>C</t>
+    <t>D,C</t>
+  </si>
+  <si>
+    <t>D,B</t>
   </si>
 </sst>
 </file>
@@ -280,10 +283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -402,7 +405,7 @@
         <v>929839</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7823782</v>
+        <v>7283749</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>17</v>
@@ -420,9 +423,173 @@
         <v>27</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>929839</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7283750</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>92839830</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M4" s="2" t="n">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>929839</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7283751</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>92839831</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>929839</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7283752</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>92839832</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>929839</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7283753</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>92839833</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <v>42194</v>
       </c>
     </row>

--- a/rsmsa/public/uploads/driver.xlsx
+++ b/rsmsa/public/uploads/driver.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Surname</t>
   </si>
@@ -104,7 +104,16 @@
     <t>D,C</t>
   </si>
   <si>
+    <t>76547476hjhj</t>
+  </si>
+  <si>
+    <t>yjytjytrj67</t>
+  </si>
+  <si>
     <t>D,B</t>
+  </si>
+  <si>
+    <t>929878765j39</t>
   </si>
 </sst>
 </file>
@@ -286,7 +295,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -443,7 +452,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>929839</v>
+        <v>54647654654</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7283750</v>
@@ -483,8 +492,8 @@
       <c r="D5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>929839</v>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7283751</v>
@@ -524,8 +533,8 @@
       <c r="D6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>929839</v>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7283752</v>
@@ -546,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>42194</v>
@@ -565,8 +574,8 @@
       <c r="D7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>929839</v>
+      <c r="E7" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7283753</v>
